--- a/Tables/table_1.xlsx
+++ b/Tables/table_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashaedmondson/Desktop/Environmental_Data_Analytics_2020/FinalProject/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3F1FD-B57E-4147-8985-CD9050716840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE23BEC-6B03-7C45-9E7A-2431D8B4D86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1020" windowWidth="25040" windowHeight="13740" xr2:uid="{517CDC89-D34B-D340-A9FB-C4BAE6F925E2}"/>
+    <workbookView xWindow="560" yWindow="1000" windowWidth="25040" windowHeight="13740" xr2:uid="{517CDC89-D34B-D340-A9FB-C4BAE6F925E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Parameter</t>
   </si>
@@ -54,12 +54,18 @@
   </si>
   <si>
     <t xml:space="preserve">Fecal Coliform 0.7 micron </t>
+  </si>
+  <si>
+    <t>Decmeber 31, 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -92,7 +98,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +416,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -463,8 +469,8 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>43465</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/table_1.xlsx
+++ b/Tables/table_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashaedmondson/Desktop/Environmental_Data_Analytics_2020/FinalProject/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE23BEC-6B03-7C45-9E7A-2431D8B4D86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F37D5AD-BE6E-424E-A1A9-7C0D8C6959BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="1000" windowWidth="25040" windowHeight="13740" xr2:uid="{517CDC89-D34B-D340-A9FB-C4BAE6F925E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Parameter</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Decmeber 31, 2018</t>
+  </si>
+  <si>
+    <t>Janurary 1, 1970</t>
   </si>
 </sst>
 </file>
@@ -64,12 +67,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,7 +107,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +425,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,8 +470,8 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>25569</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -474,6 +483,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tables/table_1.xlsx
+++ b/Tables/table_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashaedmondson/Desktop/Environmental_Data_Analytics_2020/FinalProject/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F37D5AD-BE6E-424E-A1A9-7C0D8C6959BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97759B2-AB01-2B43-BE26-EF419499EF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1000" windowWidth="25040" windowHeight="13740" xr2:uid="{517CDC89-D34B-D340-A9FB-C4BAE6F925E2}"/>
+    <workbookView xWindow="1280" yWindow="4260" windowWidth="25040" windowHeight="13740" xr2:uid="{517CDC89-D34B-D340-A9FB-C4BAE6F925E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,14 +100,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,28 +457,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3FA38B-A4FD-3A42-B6D3-7493D926F476}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
@@ -451,7 +486,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -459,28 +494,32 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
